--- a/biology/Écologie/Liste_des_écorégions_de_France/Liste_des_écorégions_de_France.xlsx
+++ b/biology/Écologie/Liste_des_écorégions_de_France/Liste_des_écorégions_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9cor%C3%A9gions_de_France</t>
+          <t>Liste_des_écorégions_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le WWF a établi une liste d'écorégions terrestres couvrant l'ensemble de la surface de la planète. Elles ne décrivent pas l'environnement français dans son ensemble, car celui-ci est largement fragmenté par les activités agricoles notamment, mais représentent les écosystèmes potentiels de ces terres, tels qu'elles étaient avant l'anthropisation. Le territoire de la France métropolitaine est divisé entre dix écorégions réparties en trois biomes.
 Biome des forêts de feuillus et forêts mixtes tempérées :
